--- a/Documentación Soporte/Entregas/Entrega 3/Medición de Calidad en uso en E1.xlsx
+++ b/Documentación Soporte/Entregas/Entrega 3/Medición de Calidad en uso en E1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Omar\OneDrive\SW 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Omar\Dropbox\Repositorios GitHub\Juego_Control_Vectores\Documentación Soporte\Entregas\Entrega 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Ponderaciones" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Tarea 2" sheetId="3" r:id="rId3"/>
     <sheet name="Tarea 3" sheetId="4" r:id="rId4"/>
     <sheet name="Tarea 4" sheetId="5" r:id="rId5"/>
-    <sheet name="Tarea 5" sheetId="6" r:id="rId6"/>
+    <sheet name="Tarea 5" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>Caracteristicas</t>
   </si>
@@ -172,9 +172,6 @@
     <t xml:space="preserve">Puntuación </t>
   </si>
   <si>
-    <t>Eficacia</t>
-  </si>
-  <si>
     <t>Frecuencia
 Errores</t>
   </si>
@@ -220,18 +217,6 @@
 de 2 Sg?</t>
   </si>
   <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>Promedio</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Cuenta</t>
-  </si>
-  <si>
     <t>Usuarios completaron</t>
   </si>
   <si>
@@ -245,13 +230,32 @@
   <si>
     <t>Frecuencia 
 Errores</t>
+  </si>
+  <si>
+    <t>Tiempo
+ Promedio</t>
+  </si>
+  <si>
+    <t>Tiempo
+Promedio</t>
+  </si>
+  <si>
+    <t>Tiempo Propuesto</t>
+  </si>
+  <si>
+    <t>Relación
+Acciones</t>
+  </si>
+  <si>
+    <t>Tiempo 
+promedio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +288,16 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -493,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -517,6 +531,55 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -569,60 +632,124 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -685,6 +812,45 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -701,6 +867,214 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -757,231 +1131,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -993,73 +1142,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1149,7 +1231,25 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1157,6 +1257,24 @@
           <color indexed="64"/>
         </left>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1418,11 +1536,11 @@
         </c:dLbls>
         <c:gapWidth val="182"/>
         <c:overlap val="-50"/>
-        <c:axId val="415314144"/>
-        <c:axId val="415313752"/>
+        <c:axId val="249113056"/>
+        <c:axId val="249172480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="415314144"/>
+        <c:axId val="249113056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1483,7 +1601,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415313752"/>
+        <c:crossAx val="249172480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1491,7 +1609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415313752"/>
+        <c:axId val="249172480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1670,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415314144"/>
+        <c:crossAx val="249113056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1928,11 +2046,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="356433552"/>
-        <c:axId val="356432376"/>
+        <c:axId val="249402840"/>
+        <c:axId val="249403224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="356433552"/>
+        <c:axId val="249402840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1974,7 +2092,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356432376"/>
+        <c:crossAx val="249403224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1982,7 +2100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356432376"/>
+        <c:axId val="249403224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,7 +2150,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356433552"/>
+        <c:crossAx val="249402840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4163,15 +4281,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4194,17 +4312,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:G8" totalsRowShown="0" dataDxfId="46" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:G8" totalsRowShown="0" dataDxfId="58" tableBorderDxfId="57">
   <autoFilter ref="B2:G8"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Usuario" dataDxfId="5"/>
-    <tableColumn id="2" name="Elementos identificados" dataDxfId="4"/>
-    <tableColumn id="3" name="Elementos _x000a_no identificados" dataDxfId="50"/>
-    <tableColumn id="4" name="Errores" dataDxfId="49"/>
-    <tableColumn id="5" name="Frecuencia_x000a_Errores" dataDxfId="48">
+    <tableColumn id="1" name="Usuario" dataDxfId="56"/>
+    <tableColumn id="2" name="Elementos identificados" dataDxfId="55"/>
+    <tableColumn id="3" name="Elementos _x000a_no identificados" dataDxfId="54"/>
+    <tableColumn id="4" name="Errores" dataDxfId="53"/>
+    <tableColumn id="5" name="Frecuencia_x000a_Errores" dataDxfId="52">
       <calculatedColumnFormula>(5/6)*E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Eficacia" dataDxfId="47">
+    <tableColumn id="6" name="Efectividad" dataDxfId="51">
       <calculatedColumnFormula>((C3/6)*5)-F3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4213,25 +4331,28 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla12" displayName="Tabla12" ref="B2:D8" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla12" displayName="Tabla12" ref="B2:D8" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="B2:D8"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Usuario" dataDxfId="2"/>
-    <tableColumn id="2" name="Tiempo Sg" dataDxfId="1"/>
-    <tableColumn id="3" name="Errores" dataDxfId="0"/>
+    <tableColumn id="1" name="Usuario" dataDxfId="8"/>
+    <tableColumn id="2" name="Tiempo Sg" dataDxfId="7"/>
+    <tableColumn id="3" name="Errores" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="B11:D12" totalsRowShown="0">
-  <autoFilter ref="B11:D12"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Puntuación " dataDxfId="17"/>
-    <tableColumn id="2" name="Efectividad" dataDxfId="16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla13" displayName="Tabla13" ref="B11:E12" totalsRowShown="0">
+  <autoFilter ref="B11:E12"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Puntuación " dataDxfId="5"/>
+    <tableColumn id="2" name="Efectividad" dataDxfId="4"/>
     <tableColumn id="3" name="Frecuencia _x000a_Errores">
       <calculatedColumnFormula>(SUM(D3:D8))*5/6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Tiempo _x000a_promedio">
+      <calculatedColumnFormula>SUM(C3:C8)/6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4239,17 +4360,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="B10:D11" totalsRowShown="0">
-  <autoFilter ref="B10:D11"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Puntuación_x000a_ prueba" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="B10:E11" totalsRowShown="0">
+  <autoFilter ref="B10:E11"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Puntuación_x000a_ prueba" dataDxfId="3">
       <calculatedColumnFormula>(5/36)*SUM(C3:C8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Efectividad" dataDxfId="39">
+    <tableColumn id="2" name="Efectividad" dataDxfId="2">
       <calculatedColumnFormula>SUM(G3:G8)/6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Frecuencia _x000a_errores" dataDxfId="38">
+    <tableColumn id="3" name="Frecuencia _x000a_errores" dataDxfId="1">
       <calculatedColumnFormula>(1/6)*5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Relación_x000a_Acciones" dataDxfId="0">
+      <calculatedColumnFormula>(SUM(Tabla2[Elementos identificados])-SUM(Tabla2[Errores]))/36</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4257,19 +4381,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B1:G7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B1:G7" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
   <autoFilter ref="B1:G7"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Usuario" dataDxfId="8"/>
-    <tableColumn id="2" name="Puntuación juego" dataDxfId="7"/>
-    <tableColumn id="3" name="Puntuación según tarea 2" dataDxfId="6"/>
-    <tableColumn id="4" name="Frecuencia errores" dataDxfId="37">
+    <tableColumn id="1" name="Usuario" dataDxfId="47"/>
+    <tableColumn id="2" name="Puntuación juego" dataDxfId="46"/>
+    <tableColumn id="3" name="Puntuación según tarea 2" dataDxfId="45"/>
+    <tableColumn id="4" name="Frecuencia errores" dataDxfId="44">
       <calculatedColumnFormula>(G2/3)*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Efectividad" dataDxfId="36">
+    <tableColumn id="5" name="Efectividad" dataDxfId="43">
       <calculatedColumnFormula>(C2/28)*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Errores _x000a_detectados_x000a_ al jugar" dataDxfId="35"/>
+    <tableColumn id="6" name="Errores _x000a_detectados_x000a_ al jugar" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4279,13 +4403,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B10:D11" totalsRowShown="0" dataDxfId="41">
   <autoFilter ref="B10:D11"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Puntuación" dataDxfId="44">
+    <tableColumn id="1" name="Puntuación" dataDxfId="40">
       <calculatedColumnFormula>SUM(D2:D7)/6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Efectividad" dataDxfId="43">
+    <tableColumn id="2" name="Efectividad" dataDxfId="39">
       <calculatedColumnFormula>SUM(F2:F7)/6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Frecuencia_x000a_ errores" dataDxfId="42">
+    <tableColumn id="3" name="Frecuencia_x000a_ errores" dataDxfId="38">
       <calculatedColumnFormula>SUM(E2:E7)/6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4294,71 +4418,79 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="B2:E8" totalsRowShown="0" headerRowDxfId="31" dataDxfId="28" tableBorderDxfId="32">
-  <autoFilter ref="B2:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="B2:E9" totalsRowCount="1" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
+  <autoFilter ref="B2:E9"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Usuario" dataDxfId="10"/>
-    <tableColumn id="2" name="¿Logró pausar?" dataDxfId="9"/>
-    <tableColumn id="3" name="¿Por debajo _x000a_de 2 Sg?" dataDxfId="30"/>
-    <tableColumn id="4" name="¿Era el_x000a_ botón correcto?" dataDxfId="29"/>
+    <tableColumn id="1" name="Usuario" dataDxfId="34" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="¿Logró pausar?" dataDxfId="33" totalsRowDxfId="13"/>
+    <tableColumn id="3" name="¿Por debajo _x000a_de 2 Sg?" dataDxfId="32" totalsRowDxfId="12"/>
+    <tableColumn id="4" name="¿Era el_x000a_ botón correcto?" dataDxfId="31" totalsRowDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="B11:D12" totalsRowShown="0" dataDxfId="24">
-  <autoFilter ref="B11:D12"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Puntuación" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="B11:F12" totalsRowShown="0" dataDxfId="30">
+  <autoFilter ref="B11:F12"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Puntuación" dataDxfId="29">
       <calculatedColumnFormula>(5/6)*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Efectividad" dataDxfId="26">
+    <tableColumn id="2" name="Efectividad" dataDxfId="28">
       <calculatedColumnFormula>(5/6) * 5 - D12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Frecuecia _x000a_errores" dataDxfId="25">
+    <tableColumn id="3" name="Frecuecia _x000a_errores" dataDxfId="27">
       <calculatedColumnFormula>(1/6)*5</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="4" name="Tiempo_x000a_ Promedio" dataDxfId="15">
+      <calculatedColumnFormula>SUM(D3:D8)/6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Tiempo Propuesto" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="B15:C16" totalsRowShown="0" headerRowDxfId="20" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="B15:C16" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="B15:C16"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Usuarios completaron" dataDxfId="23"/>
-    <tableColumn id="2" name="Usarios que _x000a_completaron" dataDxfId="22"/>
+    <tableColumn id="1" name="Usuarios completaron" dataDxfId="24"/>
+    <tableColumn id="2" name="Usarios que _x000a_completaron" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="B10:D11" totalsRowShown="0">
-  <autoFilter ref="B10:D11"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Puntuacíon" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="B10:F11" totalsRowShown="0">
+  <autoFilter ref="B10:F11"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Puntuacíon" dataDxfId="22"/>
     <tableColumn id="2" name="Efectividad">
       <calculatedColumnFormula>SUM(E3:E8)/6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Frecuencia_x000a_ errores">
       <calculatedColumnFormula>(3/6)*5</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="4" name="Tiempo_x000a_Promedio">
+      <calculatedColumnFormula>SUM(C3:C8)/6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Tiempo Propuesto"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="B2:E8" totalsRowShown="0" dataDxfId="11" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="B2:E8" totalsRowShown="0" dataDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="B2:E8"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Usuario" dataDxfId="15"/>
-    <tableColumn id="2" name="Tiempo Sg" dataDxfId="14"/>
-    <tableColumn id="3" name="Errores" dataDxfId="13"/>
-    <tableColumn id="4" name="Efectividad" dataDxfId="12"/>
+    <tableColumn id="1" name="Usuario" dataDxfId="19"/>
+    <tableColumn id="2" name="Tiempo Sg" dataDxfId="18"/>
+    <tableColumn id="3" name="Errores" dataDxfId="17"/>
+    <tableColumn id="4" name="Efectividad" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4629,8 +4761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4645,57 +4777,57 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="26"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="45"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="26"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="45"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -4709,16 +4841,16 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8">
         <f>(G6+G7+G8)*D5</f>
-        <v>0.55421626984126982</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+        <v>0.56493496472663141</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -4727,16 +4859,17 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="2">
-        <f>('Tarea 1'!B11+'Tarea 3'!C10+'Tarea 3'!B12+'Tarea 4'!B11+'Tarea 5'!B12)/6</f>
-        <v>2.9120370370370368</v>
+        <f>(Tabla6[Puntuación
+ prueba]+Tabla5[Puntuación]+Tabla8[Puntuación]+Tabla10[Puntuacíon]+Tabla13[[Puntuación ]])/6</f>
+        <v>3.5859053497942388</v>
       </c>
       <c r="G6" s="4">
         <f>E6*F6</f>
-        <v>1.4560185185185184</v>
+        <v>1.7929526748971194</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4745,16 +4878,16 @@
         <v>0.3</v>
       </c>
       <c r="F7" s="2">
-        <f>5-(Tabla5[Efectividad]/6)</f>
-        <v>4.3452380952380949</v>
+        <f>((Tabla6[Efectividad]+Tabla5[Efectividad]+Tabla8[Efectividad]+Tabla10[Efectividad]+Tabla13[Efectividad])/6)</f>
+        <v>3.4603174603174605</v>
       </c>
       <c r="G7" s="4">
         <f>E7*F7</f>
-        <v>1.3035714285714284</v>
+        <v>1.0380952380952382</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
@@ -4771,13 +4904,13 @@
         <f>E8*F8</f>
         <v>0.93518518518518512</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
@@ -4789,12 +4922,15 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="G9" s="8">
+        <f>SUM(G10:H12)*D9</f>
+        <v>0.39014285714285718</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -4805,16 +4941,21 @@
       <c r="E10" s="2">
         <v>0.3</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <f>5-((Tabla8[Tiempo Propuesto]-Tabla8[Tiempo
+ Promedio]+Tabla10[Tiempo Propuesto]-Tabla10[Tiempo
+Promedio])/3)</f>
+        <v>4.822222222222222</v>
+      </c>
       <c r="G10" s="4">
         <f>E10*F10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+        <v>1.4466666666666665</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -4825,16 +4966,19 @@
       <c r="E11" s="2">
         <v>0.3</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <f>(Tabla6[Efectividad]+Tabla5[Efectividad]+Tabla8[Efectividad]+Tabla10[Efectividad])/6</f>
+        <v>2.626984126984127</v>
+      </c>
       <c r="G11" s="4">
         <f>E11*F11</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+        <v>0.78809523809523807</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
@@ -4845,10 +4989,14 @@
       <c r="E12" s="2">
         <v>0.4</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <f>5*Tabla6[Relación
+Acciones]</f>
+        <v>4.166666666666667</v>
+      </c>
       <c r="G12" s="4">
         <f>E12*F12</f>
-        <v>0</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -4861,7 +5009,10 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8">
+        <f>SUM(G14:G17)*D13</f>
+        <v>0.47962962962962968</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -4872,17 +5023,19 @@
       <c r="E14" s="2">
         <v>0.1</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
       <c r="G14" s="4">
         <f>E14*F14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="12" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
@@ -4893,15 +5046,17 @@
       <c r="E15" s="2">
         <v>0.5</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
       <c r="G15" s="4">
         <f>E15*F15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+        <v>2.5</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
@@ -4912,15 +5067,17 @@
       <c r="E16" s="2">
         <v>0.2</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
       <c r="G16" s="4">
         <f>E16*F16</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
@@ -4931,15 +5088,22 @@
       <c r="E17" s="2">
         <v>0.2</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <f>5-(Tabla6[Frecuencia 
+errores]+Tabla5[Frecuencia
+ errores]+Tabla8[Frecuecia 
+errores]+Tabla10[Frecuencia
+ errores])/6</f>
+        <v>3.9814814814814818</v>
+      </c>
       <c r="G17" s="4">
         <f>E17*F17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+        <v>0.79629629629629639</v>
+      </c>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
     </row>
     <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -4951,11 +5115,14 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="G18" s="8">
+        <f>SUM(G19:G25)*D18</f>
+        <v>0.76222222222793656</v>
+      </c>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
     </row>
     <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
@@ -4966,15 +5133,17 @@
       <c r="E19" s="2">
         <v>0.2</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>4.5714285714285712</v>
+      </c>
       <c r="G19" s="4">
         <f t="shared" ref="G19:G25" si="0">E19*F19</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
     </row>
     <row r="20" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -4985,15 +5154,18 @@
       <c r="E20" s="2">
         <v>0.1</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="16">
+        <f>((7-3)/7) *5</f>
+        <v>2.8571428571428568</v>
+      </c>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
@@ -5004,10 +5176,13 @@
       <c r="E21" s="2">
         <v>0.2</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <f>(31/36)*5</f>
+        <v>4.3055555555555554</v>
+      </c>
       <c r="G21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5019,10 +5194,12 @@
       <c r="E22" s="2">
         <v>0.2</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <v>2.1428571430000001</v>
+      </c>
       <c r="G22" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.42857142860000003</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -5034,10 +5211,12 @@
       <c r="E23" s="2">
         <v>0.1</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2">
+        <v>4.2857142857142856</v>
+      </c>
       <c r="G23" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4285714285714286</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -5049,10 +5228,13 @@
       <c r="E24" s="2">
         <v>0.1</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2">
+        <f>(4.28571428571429 + 5)/2</f>
+        <v>4.642857142857145</v>
+      </c>
       <c r="G24" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.46428571428571452</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -5064,10 +5246,12 @@
       <c r="E25" s="2">
         <v>0.1</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <v>4.2857142857142856</v>
+      </c>
       <c r="G25" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4285714285714286</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -5080,7 +5264,10 @@
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
+      <c r="G26" s="8">
+        <f>SUM(G27:G29)*D26</f>
+        <v>0.32541666666666663</v>
+      </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
@@ -5091,10 +5278,12 @@
       <c r="E27" s="2">
         <v>0.5</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
       <c r="G27" s="4">
         <f>E27*F27</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -5106,10 +5295,12 @@
       <c r="E28" s="2">
         <v>0.4</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
       <c r="G28" s="4">
         <f>E28*F28</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -5121,10 +5312,12 @@
       <c r="E29" s="2">
         <v>0.1</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2">
+        <v>3.5416666666666599</v>
+      </c>
       <c r="G29" s="4">
         <f>E29*F29</f>
-        <v>0</v>
+        <v>0.35416666666666602</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -5137,7 +5330,10 @@
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
+      <c r="G30" s="8">
+        <f>G31*D30</f>
+        <v>0.61249999999999993</v>
+      </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
@@ -5148,10 +5344,12 @@
       <c r="E31" s="2">
         <v>0.35</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
       <c r="G31" s="2">
         <f>E31*F31</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -5162,7 +5360,16 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <f>G31+G26+G18+G13+G9+G5</f>
+        <v>4.272346340393721</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -5189,8 +5396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5199,236 +5406,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="39" t="s">
+      <c r="D2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="E2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="F2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="G2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="28">
         <v>6</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="22">
         <v>0</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="22">
         <v>0</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="22">
         <f>(5/6)*E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="39">
-        <f>((C3/6)*5)-F3</f>
+      <c r="G3" s="22">
+        <f t="shared" ref="G3:G8" si="0">((C3/6)*5)-F3</f>
         <v>5</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28">
         <v>2</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="28">
         <v>4</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="22">
         <v>2</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="22">
         <v>0</v>
       </c>
-      <c r="F4" s="39">
-        <f t="shared" ref="F4:F8" si="0">(5/6)*E4</f>
+      <c r="F4" s="22">
+        <f t="shared" ref="F4:F8" si="1">(5/6)*E4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="39">
-        <f>((C4/6)*5)-F4</f>
+      <c r="G4" s="22">
+        <f t="shared" si="0"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28">
         <v>3</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="28">
         <v>5</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="22">
         <v>0</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="22">
         <v>1</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="22">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G5" s="22">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G5" s="39">
-        <f>((C5/6)*5)-F5</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28">
         <v>4</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="28">
         <v>6</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="22">
         <v>0</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="22">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28">
+        <v>5</v>
+      </c>
+      <c r="C7" s="28">
+        <v>6</v>
+      </c>
+      <c r="D7" s="22">
         <v>0</v>
       </c>
-      <c r="G6" s="39">
-        <f>((C6/6)*5)-F6</f>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45">
-        <v>5</v>
-      </c>
-      <c r="C7" s="45">
+      <c r="H7" s="22"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28">
         <v>6</v>
       </c>
-      <c r="D7" s="39">
+      <c r="C8" s="28">
+        <v>4</v>
+      </c>
+      <c r="D8" s="22">
+        <v>2</v>
+      </c>
+      <c r="E8" s="22">
         <v>0</v>
       </c>
-      <c r="E7" s="39">
+      <c r="F8" s="22">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" s="39">
+      <c r="G8" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="39">
-        <f>((C7/6)*5)-F7</f>
-        <v>5</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="45">
-        <v>4</v>
-      </c>
-      <c r="D8" s="39">
-        <v>2</v>
-      </c>
-      <c r="E8" s="39">
-        <v>0</v>
-      </c>
-      <c r="F8" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="39">
-        <f>((C8/6)*5)-F8</f>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="H9" s="40"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
+      <c r="D10" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
+      <c r="E10" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="39">
+      <c r="B11" s="22">
         <f>(5/36)*SUM(C3:C8)</f>
         <v>4.3055555555555554</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="22">
         <f>SUM(G3:G8)/6</f>
         <v>4.1666666666666661</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="16">
         <f>(1/6)*5</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="E11" s="23">
+        <f>(SUM(Tabla2[Elementos identificados])-SUM(Tabla2[Errores]))/36</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5446,7 +5658,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5460,195 +5672,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="42" t="s">
+      <c r="E1" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>53</v>
+      <c r="G1" s="17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28">
         <v>1</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="28">
         <v>28</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="28">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="E2" s="33">
-        <f>(G2/3)*5</f>
+      <c r="E2" s="16">
+        <f t="shared" ref="E2:E7" si="0">(G2/3)*5</f>
         <v>0</v>
       </c>
-      <c r="F2" s="33">
-        <f>(C2/28)*5</f>
+      <c r="F2" s="16">
+        <f t="shared" ref="F2:F7" si="1">(C2/28)*5</f>
         <v>5</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28">
         <v>2</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="28">
         <v>18</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="28">
         <f>(5/27)*C3</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="E3" s="33">
-        <f>(G3/3)*5</f>
+      <c r="E3" s="16">
+        <f t="shared" si="0"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="F3" s="33">
-        <f>(C3/28)*5</f>
+      <c r="F3" s="16">
+        <f t="shared" si="1"/>
         <v>3.2142857142857144</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28">
         <v>3</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="28">
         <v>25</v>
       </c>
-      <c r="D4" s="45">
-        <f t="shared" ref="D4:D7" si="0">(5/27)*C4</f>
+      <c r="D4" s="28">
+        <f t="shared" ref="D4:D7" si="2">(5/27)*C4</f>
         <v>4.6296296296296298</v>
       </c>
-      <c r="E4" s="33">
-        <f>(G4/3)*5</f>
+      <c r="E4" s="16">
+        <f t="shared" si="0"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="F4" s="33">
-        <f>(C4/28)*5</f>
+      <c r="F4" s="16">
+        <f t="shared" si="1"/>
         <v>4.4642857142857144</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28">
         <v>4</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="28">
         <v>22</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="28">
+        <f t="shared" si="2"/>
+        <v>4.0740740740740735</v>
+      </c>
+      <c r="E5" s="16">
         <f t="shared" si="0"/>
-        <v>4.0740740740740735</v>
-      </c>
-      <c r="E5" s="33">
-        <f>(G5/3)*5</f>
         <v>1.6666666666666665</v>
       </c>
-      <c r="F5" s="33">
-        <f>(C5/28)*5</f>
+      <c r="F5" s="16">
+        <f t="shared" si="1"/>
         <v>3.9285714285714284</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28">
         <v>5</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="28">
         <v>20</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="28">
+        <f t="shared" si="2"/>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
-        <v>3.7037037037037033</v>
-      </c>
-      <c r="E6" s="33">
-        <f>(G6/3)*5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="33">
-        <f>(C6/28)*5</f>
+      <c r="F6" s="16">
+        <f t="shared" si="1"/>
         <v>3.5714285714285716</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28">
         <v>6</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="28">
         <v>19</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="28">
+        <f t="shared" si="2"/>
+        <v>3.5185185185185182</v>
+      </c>
+      <c r="E7" s="16">
         <f t="shared" si="0"/>
-        <v>3.5185185185185182</v>
-      </c>
-      <c r="E7" s="33">
-        <f>(G7/3)*5</f>
         <v>5</v>
       </c>
-      <c r="F7" s="33">
-        <f>(C7/28)*5</f>
+      <c r="F7" s="16">
+        <f t="shared" si="1"/>
         <v>3.3928571428571432</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>55</v>
+      <c r="D10" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="33">
+      <c r="B11" s="16">
         <f>SUM(D2:D7)/6</f>
         <v>4.0432098765432096</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="16">
         <f>SUM(F2:F7)/6</f>
         <v>3.9285714285714288</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="16">
         <f>SUM(E2:E7)/6</f>
         <v>1.9444444444444444</v>
       </c>
@@ -5665,10 +5877,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E16"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5677,149 +5889,168 @@
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45" t="s">
+    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45">
+      <c r="D2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="28">
         <v>5</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="19">
         <v>1</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28">
+        <v>5</v>
+      </c>
+      <c r="D4" s="19">
+        <v>3</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28">
+        <v>3</v>
+      </c>
+      <c r="C5" s="28">
+        <v>5</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28">
+        <v>4</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28">
+        <v>5</v>
+      </c>
+      <c r="C7" s="28">
+        <v>5</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28">
+        <v>6</v>
+      </c>
+      <c r="C8" s="28">
+        <v>5</v>
+      </c>
+      <c r="D8" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="45">
-        <v>5</v>
-      </c>
-      <c r="D4" s="36">
-        <v>0</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45">
-        <v>3</v>
-      </c>
-      <c r="C5" s="45">
-        <v>5</v>
-      </c>
-      <c r="D5" s="36">
-        <v>1</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45">
-        <v>4</v>
-      </c>
-      <c r="C6" s="45">
-        <v>0</v>
-      </c>
-      <c r="D6" s="36">
-        <v>0</v>
-      </c>
-      <c r="E6" s="36" t="s">
+      <c r="E8" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45">
-        <v>5</v>
-      </c>
-      <c r="C7" s="45">
-        <v>5</v>
-      </c>
-      <c r="D7" s="36">
-        <v>1</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45">
-        <v>6</v>
-      </c>
-      <c r="C8" s="45">
-        <v>5</v>
-      </c>
-      <c r="D8" s="36">
-        <v>1</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="31">
+      <c r="E11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="14">
         <f>(5/6)*5</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="14">
         <f>(5/6) * 5 - D12</f>
         <v>3.3333333333333339</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="14">
         <f>(1/6)*5</f>
         <v>0.83333333333333326</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="33">
+      <c r="E12" s="14">
+        <f>SUM(D3:D8)/6</f>
+        <v>1.9666666666666668</v>
+      </c>
+      <c r="F12" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
         <v>5</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="16">
         <v>1</v>
       </c>
     </row>
@@ -5836,10 +6067,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5849,124 +6080,130 @@
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="33">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="16">
         <v>4</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="16">
         <v>1</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="33">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="16">
         <v>3</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="16">
         <v>0</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="33">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="16">
         <v>3</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="16">
         <v>5</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="16">
         <v>2</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="33">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
         <v>4</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="16">
         <v>3</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="16">
         <v>0</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="33">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
         <v>5</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="16">
         <v>4</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="16">
         <v>1</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="33">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
         <v>6</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="16">
         <v>2</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="16">
         <v>0</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="30">
+      <c r="D10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
         <v>4</v>
       </c>
       <c r="C11">
@@ -5976,6 +6213,13 @@
       <c r="D11">
         <f>(3/6)*5</f>
         <v>2.5</v>
+      </c>
+      <c r="E11">
+        <f>SUM(C3:C8)/6</f>
+        <v>3.5</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5989,117 +6233,119 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="B2:D8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="45">
+      <c r="D2" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="28">
         <v>3</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="28">
         <v>2</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="28">
         <v>4</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="28">
         <v>3</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="28">
         <v>2</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="28">
         <v>4</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="28">
         <v>3.5</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="28">
         <v>5</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="28">
         <v>3</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="28">
         <v>6</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="28">
         <v>2</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="30">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
         <v>5</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="13">
         <v>5</v>
       </c>
       <c r="D12">
         <f>(SUM(D3:D8))*5/6</f>
         <v>0.83333333333333337</v>
+      </c>
+      <c r="E12">
+        <f>SUM(C3:C8)/6</f>
+        <v>2.9166666666666665</v>
       </c>
     </row>
   </sheetData>
